--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SheetProduct" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Category</t>
   </si>
@@ -102,7 +104,13 @@
     <t>ProductName</t>
   </si>
   <si>
-    <t>Lenovo Ideapad 110 APU Quad Core A6 6th Gen</t>
+    <t>Thea Stilton and the Tropical Treasure</t>
+  </si>
+  <si>
+    <t>Asian Casuals (White, White)</t>
+  </si>
+  <si>
+    <t>Adidas MESSI 16.3 TF Football turf Shoes (Blue)</t>
   </si>
 </sst>
 </file>
@@ -429,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +528,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -528,7 +539,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -537,6 +550,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,6 +561,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\JoomRepo\com.joom.automation\src\test\resources\TestScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository8\com.joom.automation\src\test\resources\TestScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SheetProduct" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Users" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -111,6 +112,54 @@
   </si>
   <si>
     <t>Adidas MESSI 16.3 TF Football turf Shoes (Blue)</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Contactno</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>confirmpassword</t>
+  </si>
+  <si>
+    <t>joom</t>
+  </si>
+  <si>
+    <t>joom@gmail.com</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>avp</t>
+  </si>
+  <si>
+    <t>avp@gmail.com</t>
+  </si>
+  <si>
+    <t>yes1</t>
+  </si>
+  <si>
+    <t>axf</t>
+  </si>
+  <si>
+    <t>axf@gmail.com</t>
+  </si>
+  <si>
+    <t>ceramic vase</t>
+  </si>
+  <si>
+    <t>wall painting</t>
+  </si>
+  <si>
+    <t>78654322</t>
   </si>
 </sst>
 </file>
@@ -152,11 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,19 +553,19 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -528,23 +576,23 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -552,7 +600,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J6" s="3"/>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,10 +648,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,17 +666,111 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>890764</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/TestScriptData/CategoryFields.xlsx
+++ b/src/test/resources/TestScriptData/CategoryFields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>78654322</t>
+  </si>
+  <si>
+    <t>Adidas MESSI 16.3 TF Football turf Shoes  (Blue)</t>
+  </si>
+  <si>
+    <t>Spherical chandelier</t>
   </si>
 </sst>
 </file>
@@ -650,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -666,22 +672,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
